--- a/SLA_Empathy_pre-task_scored.xlsx
+++ b/SLA_Empathy_pre-task_scored.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Dropbox/Dominic/Github/fareri-lab/SLA_Empathy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/SLA_Empathy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0015146-5C6A-E945-A9F2-47356A1A2934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="28340" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="28340" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -18,8 +17,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$CX$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miGbyaerKDG8gvtU9v49jUVtVrwJg=="/>
     </ext>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="294">
   <si>
     <t>StartDate</t>
   </si>
@@ -854,11 +859,104 @@
   <si>
     <t>4172186</t>
   </si>
+  <si>
+    <t>R_7WGHa35gT8vFF5L</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>5080086</t>
+  </si>
+  <si>
+    <t>R_2z8tNWLw0dRn4If</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>2555635</t>
+  </si>
+  <si>
+    <t>R_20PdwNZLiPT4j5I</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>2956645</t>
+  </si>
+  <si>
+    <t>R_1inbKJnPof7nh96</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>1624799</t>
+  </si>
+  <si>
+    <t>R_1CKshsQ8rUK0yje</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>5720458</t>
+  </si>
+  <si>
+    <t>R_27U4Aqy9FisamlD</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>5347912</t>
+  </si>
+  <si>
+    <t>R_3NTDyJLlvJXbDEJ</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>7714409</t>
+  </si>
+  <si>
+    <t>R_32Rw7LvHRzkfflb</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>1303973</t>
+  </si>
+  <si>
+    <t>R_3Mut942Y9Nd7wRc</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>8140427</t>
+  </si>
+  <si>
+    <t>R_1jw9GZnSlFdqNIH</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>6271366</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -983,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1059,6 +1157,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1274,12 +1377,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CW3" sqref="CW3"/>
+      <selection pane="bottomLeft" activeCell="AS33" sqref="AS33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1289,7 +1392,7 @@
     <col min="5" max="5" width="18.1640625" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" customWidth="1"/>
@@ -1981,7 +2084,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
         <v>43787.245185185187</v>
       </c>
@@ -2297,7 +2400,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <v>43787.291446759256</v>
       </c>
@@ -2602,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="CV4" s="27">
-        <f t="shared" ref="CV3:CV24" si="7">CO4+CP4+CR4+CU4</f>
+        <f t="shared" ref="CV4:CV24" si="7">CO4+CP4+CR4+CU4</f>
         <v>21</v>
       </c>
       <c r="CW4" s="37">
@@ -2613,7 +2716,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
         <v>43788.295416666668</v>
       </c>
@@ -2929,7 +3032,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
         <v>43788.360335648147</v>
       </c>
@@ -3245,7 +3348,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>43790.299537037034</v>
       </c>
@@ -3561,7 +3664,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>43790.355891203704</v>
       </c>
@@ -3877,7 +3980,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
         <v>43791.301724537036</v>
       </c>
@@ -4193,7 +4296,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
         <v>43795.242615740739</v>
       </c>
@@ -4509,7 +4612,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>43795.305405092593</v>
       </c>
@@ -4825,7 +4928,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>43795.358067129629</v>
       </c>
@@ -5141,7 +5244,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
         <v>43801.308645833335</v>
       </c>
@@ -5457,7 +5560,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
         <v>43802.369340277779</v>
       </c>
@@ -5773,7 +5876,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
         <v>43803.306018518517</v>
       </c>
@@ -6089,7 +6192,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <v>43809.308541666665</v>
       </c>
@@ -6405,7 +6508,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <v>43809.351678240739</v>
       </c>
@@ -6721,7 +6824,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
         <v>43809.421087962961</v>
       </c>
@@ -7037,7 +7140,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <v>43810.346886574072</v>
       </c>
@@ -7353,7 +7456,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:102" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <v>43810.399259259262</v>
       </c>
@@ -8933,277 +9036,2917 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O25" s="34"/>
-      <c r="R25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AP25" s="34"/>
+    <row r="25" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A25" s="42">
+        <v>43865.310937499999</v>
+      </c>
+      <c r="B25" s="42">
+        <v>43865.32234953704</v>
+      </c>
+      <c r="C25" s="43">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43">
+        <v>100</v>
+      </c>
+      <c r="E25" s="43">
+        <v>985</v>
+      </c>
+      <c r="F25" s="43">
+        <v>1</v>
+      </c>
+      <c r="G25" s="42">
+        <v>43865.322360266204</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" s="43">
+        <v>1</v>
+      </c>
+      <c r="N25" s="43">
+        <v>1</v>
+      </c>
+      <c r="O25" s="43">
+        <v>3</v>
+      </c>
+      <c r="P25" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="43">
+        <v>2</v>
+      </c>
+      <c r="R25" s="43">
+        <v>2</v>
+      </c>
+      <c r="S25" s="43">
+        <v>1</v>
+      </c>
+      <c r="T25" s="43">
+        <v>3</v>
+      </c>
+      <c r="U25" s="43">
+        <v>3</v>
+      </c>
+      <c r="V25" s="43">
+        <v>3</v>
+      </c>
+      <c r="W25" s="43">
+        <v>5</v>
+      </c>
+      <c r="X25" s="43">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="43">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="43">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="43">
+        <v>4</v>
+      </c>
+      <c r="AB25" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="43">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="43">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH25" s="43">
+        <v>4</v>
+      </c>
+      <c r="AI25" s="43">
+        <v>4</v>
+      </c>
+      <c r="AJ25" s="43">
+        <v>4</v>
+      </c>
+      <c r="AK25" s="43">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="43">
+        <v>2</v>
+      </c>
+      <c r="AM25" s="43">
+        <v>2</v>
+      </c>
+      <c r="AN25" s="43">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="43">
+        <v>4</v>
+      </c>
+      <c r="AP25" s="43">
+        <v>3</v>
+      </c>
       <c r="AQ25" s="40"/>
       <c r="AR25" s="41"/>
       <c r="AS25" s="41"/>
       <c r="AT25" s="41"/>
       <c r="AU25" s="36"/>
-      <c r="AV25" s="34"/>
-      <c r="AX25" s="38"/>
-      <c r="AZ25" s="38"/>
-      <c r="BC25" s="38"/>
-      <c r="BD25" s="38"/>
-      <c r="BE25" s="38"/>
-      <c r="BF25" s="36"/>
-      <c r="CJ25" s="34"/>
-      <c r="CU25" s="34"/>
+      <c r="AV25" s="43">
+        <v>2</v>
+      </c>
+      <c r="AW25" s="43">
+        <v>2</v>
+      </c>
+      <c r="AX25" s="43">
+        <v>2</v>
+      </c>
+      <c r="AY25" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ25" s="43">
+        <v>3</v>
+      </c>
+      <c r="BA25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BB25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BD25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BE25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BF25" s="43"/>
+      <c r="BG25" s="43">
+        <v>3</v>
+      </c>
+      <c r="BH25" s="43">
+        <v>3</v>
+      </c>
+      <c r="BI25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BJ25" s="43">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BL25" s="43">
+        <v>1</v>
+      </c>
+      <c r="BM25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BN25" s="43">
+        <v>1</v>
+      </c>
+      <c r="BO25" s="43">
+        <v>4</v>
+      </c>
+      <c r="BP25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BQ25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BR25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BS25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BT25" s="43">
+        <v>4</v>
+      </c>
+      <c r="BU25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BV25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BW25" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX25" s="43">
+        <v>4</v>
+      </c>
+      <c r="BY25" s="43">
+        <v>2</v>
+      </c>
+      <c r="BZ25" s="43">
+        <v>1</v>
+      </c>
+      <c r="CA25" s="43">
+        <v>2</v>
+      </c>
+      <c r="CB25" s="43">
+        <v>2</v>
+      </c>
+      <c r="CC25" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD25" s="43">
+        <v>3</v>
+      </c>
+      <c r="CE25" s="43">
+        <v>2</v>
+      </c>
+      <c r="CF25" s="43">
+        <v>2</v>
+      </c>
+      <c r="CG25" s="43">
+        <v>4</v>
+      </c>
+      <c r="CH25" s="43">
+        <v>2</v>
+      </c>
+      <c r="CI25" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ25" s="43">
+        <v>5</v>
+      </c>
+      <c r="CK25" s="43">
+        <v>5</v>
+      </c>
+      <c r="CL25" s="43">
+        <v>4</v>
+      </c>
+      <c r="CM25" s="43">
+        <v>5</v>
+      </c>
+      <c r="CN25" s="43">
+        <v>5</v>
+      </c>
+      <c r="CO25" s="43">
+        <v>6</v>
+      </c>
+      <c r="CP25" s="43">
+        <v>5</v>
+      </c>
+      <c r="CQ25" s="43">
+        <v>5</v>
+      </c>
+      <c r="CR25" s="43">
+        <v>5</v>
+      </c>
+      <c r="CS25" s="43">
+        <v>4</v>
+      </c>
+      <c r="CT25" s="43">
+        <v>6</v>
+      </c>
+      <c r="CU25" s="43">
+        <v>6</v>
+      </c>
       <c r="CW25" s="36"/>
-    </row>
-    <row r="26" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O26" s="34"/>
-      <c r="R26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
-      <c r="AP26" s="34"/>
+      <c r="CX25" s="44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A26" s="42">
+        <v>43865.449421296296</v>
+      </c>
+      <c r="B26" s="42">
+        <v>43865.454305555555</v>
+      </c>
+      <c r="C26" s="43">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43">
+        <v>100</v>
+      </c>
+      <c r="E26" s="43">
+        <v>421</v>
+      </c>
+      <c r="F26" s="43">
+        <v>1</v>
+      </c>
+      <c r="G26" s="42">
+        <v>43865.45431458333</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="M26" s="43">
+        <v>2</v>
+      </c>
+      <c r="N26" s="43">
+        <v>2</v>
+      </c>
+      <c r="O26" s="43">
+        <v>5</v>
+      </c>
+      <c r="P26" s="43">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="43">
+        <v>1</v>
+      </c>
+      <c r="R26" s="43">
+        <v>1</v>
+      </c>
+      <c r="S26" s="43">
+        <v>4</v>
+      </c>
+      <c r="T26" s="43">
+        <v>2</v>
+      </c>
+      <c r="U26" s="43">
+        <v>1</v>
+      </c>
+      <c r="V26" s="43">
+        <v>4</v>
+      </c>
+      <c r="W26" s="43">
+        <v>4</v>
+      </c>
+      <c r="X26" s="43">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="43">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="43">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="43">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="43">
+        <v>4</v>
+      </c>
+      <c r="AE26" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF26" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="43">
+        <v>4</v>
+      </c>
+      <c r="AH26" s="43">
+        <v>5</v>
+      </c>
+      <c r="AI26" s="43">
+        <v>5</v>
+      </c>
+      <c r="AJ26" s="43">
+        <v>5</v>
+      </c>
+      <c r="AK26" s="43">
+        <v>5</v>
+      </c>
+      <c r="AL26" s="43">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="43">
+        <v>5</v>
+      </c>
+      <c r="AN26" s="43">
+        <v>5</v>
+      </c>
+      <c r="AO26" s="43">
+        <v>3</v>
+      </c>
+      <c r="AP26" s="43">
+        <v>4</v>
+      </c>
       <c r="AQ26" s="41"/>
       <c r="AR26" s="41"/>
       <c r="AS26" s="41"/>
       <c r="AT26" s="41"/>
       <c r="AU26" s="36"/>
-      <c r="AV26" s="34"/>
-      <c r="AX26" s="38"/>
-      <c r="AZ26" s="38"/>
-      <c r="BC26" s="38"/>
-      <c r="BD26" s="38"/>
-      <c r="BE26" s="38"/>
-      <c r="BF26" s="36"/>
-      <c r="CJ26" s="34"/>
-      <c r="CU26" s="34"/>
+      <c r="AV26" s="43">
+        <v>2</v>
+      </c>
+      <c r="AW26" s="43">
+        <v>2</v>
+      </c>
+      <c r="AX26" s="43">
+        <v>3</v>
+      </c>
+      <c r="AY26" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ26" s="43">
+        <v>3</v>
+      </c>
+      <c r="BA26" s="43">
+        <v>2</v>
+      </c>
+      <c r="BB26" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC26" s="43">
+        <v>2</v>
+      </c>
+      <c r="BD26" s="43">
+        <v>2</v>
+      </c>
+      <c r="BE26" s="43">
+        <v>2</v>
+      </c>
+      <c r="BF26" s="43"/>
+      <c r="BG26" s="43">
+        <v>3</v>
+      </c>
+      <c r="BH26" s="43">
+        <v>2</v>
+      </c>
+      <c r="BI26" s="43">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="43">
+        <v>1</v>
+      </c>
+      <c r="BK26" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL26" s="43">
+        <v>1</v>
+      </c>
+      <c r="BM26" s="43">
+        <v>2</v>
+      </c>
+      <c r="BN26" s="43">
+        <v>1</v>
+      </c>
+      <c r="BO26" s="43">
+        <v>1</v>
+      </c>
+      <c r="BP26" s="43">
+        <v>2</v>
+      </c>
+      <c r="BQ26" s="43">
+        <v>4</v>
+      </c>
+      <c r="BR26" s="43">
+        <v>3</v>
+      </c>
+      <c r="BS26" s="43">
+        <v>4</v>
+      </c>
+      <c r="BT26" s="43">
+        <v>4</v>
+      </c>
+      <c r="BU26" s="43">
+        <v>2</v>
+      </c>
+      <c r="BV26" s="43">
+        <v>3</v>
+      </c>
+      <c r="BW26" s="43">
+        <v>2</v>
+      </c>
+      <c r="BX26" s="43">
+        <v>2</v>
+      </c>
+      <c r="BY26" s="43">
+        <v>2</v>
+      </c>
+      <c r="BZ26" s="43">
+        <v>1</v>
+      </c>
+      <c r="CA26" s="43">
+        <v>3</v>
+      </c>
+      <c r="CB26" s="43">
+        <v>1</v>
+      </c>
+      <c r="CC26" s="43">
+        <v>2</v>
+      </c>
+      <c r="CD26" s="43">
+        <v>1</v>
+      </c>
+      <c r="CE26" s="43">
+        <v>2</v>
+      </c>
+      <c r="CF26" s="43">
+        <v>3</v>
+      </c>
+      <c r="CG26" s="43">
+        <v>1</v>
+      </c>
+      <c r="CH26" s="43">
+        <v>2</v>
+      </c>
+      <c r="CI26" s="43">
+        <v>2</v>
+      </c>
+      <c r="CJ26" s="43">
+        <v>6</v>
+      </c>
+      <c r="CK26" s="43">
+        <v>6</v>
+      </c>
+      <c r="CL26" s="43">
+        <v>7</v>
+      </c>
+      <c r="CM26" s="43">
+        <v>7</v>
+      </c>
+      <c r="CN26" s="43">
+        <v>7</v>
+      </c>
+      <c r="CO26" s="43">
+        <v>7</v>
+      </c>
+      <c r="CP26" s="43">
+        <v>7</v>
+      </c>
+      <c r="CQ26" s="43">
+        <v>7</v>
+      </c>
+      <c r="CR26" s="43">
+        <v>7</v>
+      </c>
+      <c r="CS26" s="43">
+        <v>7</v>
+      </c>
+      <c r="CT26" s="43">
+        <v>7</v>
+      </c>
+      <c r="CU26" s="43">
+        <v>7</v>
+      </c>
       <c r="CW26" s="36"/>
-    </row>
-    <row r="27" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O27" s="34"/>
-      <c r="R27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AP27" s="34"/>
+      <c r="CX26" s="44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A27" s="42">
+        <v>43866.390347222223</v>
+      </c>
+      <c r="B27" s="42">
+        <v>43866.402025462965</v>
+      </c>
+      <c r="C27" s="43">
+        <v>0</v>
+      </c>
+      <c r="D27" s="43">
+        <v>100</v>
+      </c>
+      <c r="E27" s="43">
+        <v>1008</v>
+      </c>
+      <c r="F27" s="43">
+        <v>1</v>
+      </c>
+      <c r="G27" s="42">
+        <v>43866.402040694447</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="M27" s="43">
+        <v>1</v>
+      </c>
+      <c r="N27" s="43">
+        <v>1</v>
+      </c>
+      <c r="O27" s="43">
+        <v>3</v>
+      </c>
+      <c r="P27" s="43">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="43">
+        <v>2</v>
+      </c>
+      <c r="R27" s="43">
+        <v>2</v>
+      </c>
+      <c r="S27" s="43">
+        <v>3</v>
+      </c>
+      <c r="T27" s="43">
+        <v>2</v>
+      </c>
+      <c r="U27" s="43">
+        <v>3</v>
+      </c>
+      <c r="V27" s="43">
+        <v>4</v>
+      </c>
+      <c r="W27" s="43">
+        <v>3</v>
+      </c>
+      <c r="X27" s="43">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="43">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="43">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="43">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="43">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="43">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="43">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="43">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="43">
+        <v>4</v>
+      </c>
+      <c r="AH27" s="43">
+        <v>4</v>
+      </c>
+      <c r="AI27" s="43">
+        <v>4</v>
+      </c>
+      <c r="AJ27" s="43">
+        <v>3</v>
+      </c>
+      <c r="AK27" s="43">
+        <v>3</v>
+      </c>
+      <c r="AL27" s="43">
+        <v>2</v>
+      </c>
+      <c r="AM27" s="43">
+        <v>3</v>
+      </c>
+      <c r="AN27" s="43">
+        <v>3</v>
+      </c>
+      <c r="AO27" s="43">
+        <v>2</v>
+      </c>
+      <c r="AP27" s="43">
+        <v>3</v>
+      </c>
       <c r="AQ27" s="41"/>
       <c r="AR27" s="41"/>
       <c r="AS27" s="41"/>
       <c r="AT27" s="41"/>
       <c r="AU27" s="36"/>
-      <c r="AV27" s="34"/>
-      <c r="AX27" s="38"/>
-      <c r="AZ27" s="38"/>
-      <c r="BC27" s="38"/>
-      <c r="BD27" s="38"/>
-      <c r="BE27" s="38"/>
-      <c r="BF27" s="36"/>
-      <c r="CJ27" s="34"/>
-      <c r="CU27" s="34"/>
+      <c r="AV27" s="43">
+        <v>2</v>
+      </c>
+      <c r="AW27" s="43">
+        <v>2</v>
+      </c>
+      <c r="AX27" s="43">
+        <v>3</v>
+      </c>
+      <c r="AY27" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ27" s="43">
+        <v>3</v>
+      </c>
+      <c r="BA27" s="43">
+        <v>2</v>
+      </c>
+      <c r="BB27" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC27" s="43">
+        <v>3</v>
+      </c>
+      <c r="BD27" s="43">
+        <v>3</v>
+      </c>
+      <c r="BE27" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF27" s="43"/>
+      <c r="BG27" s="43">
+        <v>2</v>
+      </c>
+      <c r="BH27" s="43">
+        <v>2</v>
+      </c>
+      <c r="BI27" s="43">
+        <v>2</v>
+      </c>
+      <c r="BJ27" s="43">
+        <v>3</v>
+      </c>
+      <c r="BK27" s="43">
+        <v>2</v>
+      </c>
+      <c r="BL27" s="43">
+        <v>2</v>
+      </c>
+      <c r="BM27" s="43">
+        <v>2</v>
+      </c>
+      <c r="BN27" s="43">
+        <v>1</v>
+      </c>
+      <c r="BO27" s="43">
+        <v>1</v>
+      </c>
+      <c r="BP27" s="43">
+        <v>2</v>
+      </c>
+      <c r="BQ27" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR27" s="43">
+        <v>1</v>
+      </c>
+      <c r="BS27" s="43">
+        <v>3</v>
+      </c>
+      <c r="BT27" s="43">
+        <v>3</v>
+      </c>
+      <c r="BU27" s="43">
+        <v>2</v>
+      </c>
+      <c r="BV27" s="43">
+        <v>3</v>
+      </c>
+      <c r="BW27" s="43">
+        <v>2</v>
+      </c>
+      <c r="BX27" s="43">
+        <v>3</v>
+      </c>
+      <c r="BY27" s="43">
+        <v>3</v>
+      </c>
+      <c r="BZ27" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA27" s="43">
+        <v>3</v>
+      </c>
+      <c r="CB27" s="43">
+        <v>2</v>
+      </c>
+      <c r="CC27" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD27" s="43">
+        <v>2</v>
+      </c>
+      <c r="CE27" s="43">
+        <v>2</v>
+      </c>
+      <c r="CF27" s="43">
+        <v>3</v>
+      </c>
+      <c r="CG27" s="43">
+        <v>2</v>
+      </c>
+      <c r="CH27" s="43">
+        <v>2</v>
+      </c>
+      <c r="CI27" s="43">
+        <v>3</v>
+      </c>
+      <c r="CJ27" s="43">
+        <v>6</v>
+      </c>
+      <c r="CK27" s="43">
+        <v>6</v>
+      </c>
+      <c r="CL27" s="43">
+        <v>6</v>
+      </c>
+      <c r="CM27" s="43">
+        <v>6</v>
+      </c>
+      <c r="CN27" s="43">
+        <v>6</v>
+      </c>
+      <c r="CO27" s="43">
+        <v>6</v>
+      </c>
+      <c r="CP27" s="43">
+        <v>6</v>
+      </c>
+      <c r="CQ27" s="43">
+        <v>6</v>
+      </c>
+      <c r="CR27" s="43">
+        <v>6</v>
+      </c>
+      <c r="CS27" s="43">
+        <v>6</v>
+      </c>
+      <c r="CT27" s="43">
+        <v>6</v>
+      </c>
+      <c r="CU27" s="43">
+        <v>6</v>
+      </c>
       <c r="CW27" s="36"/>
-    </row>
-    <row r="28" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O28" s="34"/>
-      <c r="R28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-      <c r="AP28" s="34"/>
+      <c r="CX27" s="44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A28" s="42">
+        <v>43872.431863425925</v>
+      </c>
+      <c r="B28" s="42">
+        <v>43872.446747685186</v>
+      </c>
+      <c r="C28" s="43">
+        <v>0</v>
+      </c>
+      <c r="D28" s="43">
+        <v>100</v>
+      </c>
+      <c r="E28" s="43">
+        <v>1286</v>
+      </c>
+      <c r="F28" s="43">
+        <v>1</v>
+      </c>
+      <c r="G28" s="42">
+        <v>43872.446760451392</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J28" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="M28" s="43">
+        <v>1</v>
+      </c>
+      <c r="N28" s="43">
+        <v>1</v>
+      </c>
+      <c r="O28" s="43">
+        <v>5</v>
+      </c>
+      <c r="P28" s="43">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="43">
+        <v>3</v>
+      </c>
+      <c r="R28" s="43">
+        <v>1</v>
+      </c>
+      <c r="S28" s="43">
+        <v>5</v>
+      </c>
+      <c r="T28" s="43">
+        <v>5</v>
+      </c>
+      <c r="U28" s="43">
+        <v>3</v>
+      </c>
+      <c r="V28" s="43">
+        <v>5</v>
+      </c>
+      <c r="W28" s="43">
+        <v>4</v>
+      </c>
+      <c r="X28" s="43">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="43">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="43">
+        <v>5</v>
+      </c>
+      <c r="AA28" s="43">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="43">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="43">
+        <v>5</v>
+      </c>
+      <c r="AE28" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF28" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH28" s="43">
+        <v>5</v>
+      </c>
+      <c r="AI28" s="43">
+        <v>5</v>
+      </c>
+      <c r="AJ28" s="43">
+        <v>5</v>
+      </c>
+      <c r="AK28" s="43">
+        <v>5</v>
+      </c>
+      <c r="AL28" s="43">
+        <v>3</v>
+      </c>
+      <c r="AM28" s="43">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="43">
+        <v>5</v>
+      </c>
+      <c r="AO28" s="43">
+        <v>3</v>
+      </c>
+      <c r="AP28" s="43">
+        <v>5</v>
+      </c>
       <c r="AQ28" s="41"/>
       <c r="AR28" s="41"/>
       <c r="AS28" s="41"/>
       <c r="AT28" s="41"/>
       <c r="AU28" s="36"/>
-      <c r="AV28" s="34"/>
-      <c r="AX28" s="38"/>
-      <c r="AZ28" s="38"/>
-      <c r="BC28" s="38"/>
-      <c r="BD28" s="38"/>
-      <c r="BE28" s="38"/>
-      <c r="BF28" s="36"/>
-      <c r="CJ28" s="34"/>
-      <c r="CU28" s="34"/>
+      <c r="AV28" s="43">
+        <v>3</v>
+      </c>
+      <c r="AW28" s="43">
+        <v>2</v>
+      </c>
+      <c r="AX28" s="43">
+        <v>1</v>
+      </c>
+      <c r="AY28" s="43">
+        <v>4</v>
+      </c>
+      <c r="AZ28" s="43">
+        <v>2</v>
+      </c>
+      <c r="BA28" s="43">
+        <v>3</v>
+      </c>
+      <c r="BB28" s="43">
+        <v>3</v>
+      </c>
+      <c r="BC28" s="43">
+        <v>1</v>
+      </c>
+      <c r="BD28" s="43">
+        <v>2</v>
+      </c>
+      <c r="BE28" s="43">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="43"/>
+      <c r="BG28" s="43">
+        <v>1</v>
+      </c>
+      <c r="BH28" s="43">
+        <v>4</v>
+      </c>
+      <c r="BI28" s="43">
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="43">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL28" s="43">
+        <v>1</v>
+      </c>
+      <c r="BM28" s="43">
+        <v>2</v>
+      </c>
+      <c r="BN28" s="43">
+        <v>1</v>
+      </c>
+      <c r="BO28" s="43">
+        <v>1</v>
+      </c>
+      <c r="BP28" s="43">
+        <v>1</v>
+      </c>
+      <c r="BQ28" s="43">
+        <v>2</v>
+      </c>
+      <c r="BR28" s="43">
+        <v>4</v>
+      </c>
+      <c r="BS28" s="43">
+        <v>3</v>
+      </c>
+      <c r="BT28" s="43">
+        <v>4</v>
+      </c>
+      <c r="BU28" s="43">
+        <v>2</v>
+      </c>
+      <c r="BV28" s="43">
+        <v>3</v>
+      </c>
+      <c r="BW28" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX28" s="43">
+        <v>4</v>
+      </c>
+      <c r="BY28" s="43">
+        <v>4</v>
+      </c>
+      <c r="BZ28" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA28" s="43">
+        <v>4</v>
+      </c>
+      <c r="CB28" s="43">
+        <v>2</v>
+      </c>
+      <c r="CC28" s="43">
+        <v>4</v>
+      </c>
+      <c r="CD28" s="43">
+        <v>2</v>
+      </c>
+      <c r="CE28" s="43">
+        <v>1</v>
+      </c>
+      <c r="CF28" s="43">
+        <v>2</v>
+      </c>
+      <c r="CG28" s="43">
+        <v>1</v>
+      </c>
+      <c r="CH28" s="43">
+        <v>2</v>
+      </c>
+      <c r="CI28" s="43">
+        <v>3</v>
+      </c>
+      <c r="CJ28" s="43">
+        <v>2</v>
+      </c>
+      <c r="CK28" s="43">
+        <v>2</v>
+      </c>
+      <c r="CL28" s="43">
+        <v>1</v>
+      </c>
+      <c r="CM28" s="43">
+        <v>1</v>
+      </c>
+      <c r="CN28" s="43">
+        <v>5</v>
+      </c>
+      <c r="CO28" s="43">
+        <v>7</v>
+      </c>
+      <c r="CP28" s="43">
+        <v>6</v>
+      </c>
+      <c r="CQ28" s="43">
+        <v>1</v>
+      </c>
+      <c r="CR28" s="43">
+        <v>7</v>
+      </c>
+      <c r="CS28" s="43">
+        <v>2</v>
+      </c>
+      <c r="CT28" s="43">
+        <v>1</v>
+      </c>
+      <c r="CU28" s="43">
+        <v>4</v>
+      </c>
       <c r="CW28" s="36"/>
-    </row>
-    <row r="29" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O29" s="34"/>
-      <c r="R29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="39"/>
-      <c r="AP29" s="34"/>
+      <c r="CX28" s="44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A29" s="42">
+        <v>43874.309675925928</v>
+      </c>
+      <c r="B29" s="42">
+        <v>43874.321145833332</v>
+      </c>
+      <c r="C29" s="43">
+        <v>0</v>
+      </c>
+      <c r="D29" s="43">
+        <v>100</v>
+      </c>
+      <c r="E29" s="43">
+        <v>991</v>
+      </c>
+      <c r="F29" s="43">
+        <v>1</v>
+      </c>
+      <c r="G29" s="42">
+        <v>43874.321173113429</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" s="43">
+        <v>2</v>
+      </c>
+      <c r="N29" s="43">
+        <v>2</v>
+      </c>
+      <c r="O29" s="43">
+        <v>4</v>
+      </c>
+      <c r="P29" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="43">
+        <v>2</v>
+      </c>
+      <c r="R29" s="43">
+        <v>1</v>
+      </c>
+      <c r="S29" s="43">
+        <v>2</v>
+      </c>
+      <c r="T29" s="43">
+        <v>4</v>
+      </c>
+      <c r="U29" s="43">
+        <v>3</v>
+      </c>
+      <c r="V29" s="43">
+        <v>4</v>
+      </c>
+      <c r="W29" s="43">
+        <v>4</v>
+      </c>
+      <c r="X29" s="43">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="43">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="43">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="43">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="43">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="43">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF29" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH29" s="43">
+        <v>4</v>
+      </c>
+      <c r="AI29" s="43">
+        <v>4</v>
+      </c>
+      <c r="AJ29" s="43">
+        <v>5</v>
+      </c>
+      <c r="AK29" s="43">
+        <v>3</v>
+      </c>
+      <c r="AL29" s="43">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="43">
+        <v>4</v>
+      </c>
+      <c r="AO29" s="43">
+        <v>2</v>
+      </c>
+      <c r="AP29" s="43">
+        <v>3</v>
+      </c>
       <c r="AQ29" s="41"/>
       <c r="AR29" s="41"/>
       <c r="AS29" s="41"/>
       <c r="AT29" s="41"/>
       <c r="AU29" s="36"/>
-      <c r="AV29" s="34"/>
-      <c r="AX29" s="38"/>
-      <c r="AZ29" s="38"/>
-      <c r="BC29" s="38"/>
-      <c r="BD29" s="38"/>
-      <c r="BE29" s="38"/>
-      <c r="BF29" s="36"/>
-      <c r="CJ29" s="34"/>
-      <c r="CU29" s="34"/>
+      <c r="AV29" s="43">
+        <v>2</v>
+      </c>
+      <c r="AW29" s="43">
+        <v>2</v>
+      </c>
+      <c r="AX29" s="43">
+        <v>3</v>
+      </c>
+      <c r="AY29" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ29" s="43">
+        <v>3</v>
+      </c>
+      <c r="BA29" s="43">
+        <v>2</v>
+      </c>
+      <c r="BB29" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC29" s="43">
+        <v>3</v>
+      </c>
+      <c r="BD29" s="43">
+        <v>2</v>
+      </c>
+      <c r="BE29" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF29" s="43"/>
+      <c r="BG29" s="43">
+        <v>2</v>
+      </c>
+      <c r="BH29" s="43">
+        <v>2</v>
+      </c>
+      <c r="BI29" s="43">
+        <v>1</v>
+      </c>
+      <c r="BJ29" s="43">
+        <v>3</v>
+      </c>
+      <c r="BK29" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL29" s="43">
+        <v>1</v>
+      </c>
+      <c r="BM29" s="43">
+        <v>2</v>
+      </c>
+      <c r="BN29" s="43">
+        <v>1</v>
+      </c>
+      <c r="BO29" s="43">
+        <v>1</v>
+      </c>
+      <c r="BP29" s="43">
+        <v>1</v>
+      </c>
+      <c r="BQ29" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR29" s="43">
+        <v>3</v>
+      </c>
+      <c r="BS29" s="43">
+        <v>3</v>
+      </c>
+      <c r="BT29" s="43">
+        <v>2</v>
+      </c>
+      <c r="BU29" s="43">
+        <v>2</v>
+      </c>
+      <c r="BV29" s="43">
+        <v>3</v>
+      </c>
+      <c r="BW29" s="43">
+        <v>2</v>
+      </c>
+      <c r="BX29" s="43">
+        <v>3</v>
+      </c>
+      <c r="BY29" s="43">
+        <v>3</v>
+      </c>
+      <c r="BZ29" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA29" s="43">
+        <v>4</v>
+      </c>
+      <c r="CB29" s="43">
+        <v>3</v>
+      </c>
+      <c r="CC29" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD29" s="43">
+        <v>2</v>
+      </c>
+      <c r="CE29" s="43">
+        <v>1</v>
+      </c>
+      <c r="CF29" s="43">
+        <v>1</v>
+      </c>
+      <c r="CG29" s="43">
+        <v>2</v>
+      </c>
+      <c r="CH29" s="43">
+        <v>2</v>
+      </c>
+      <c r="CI29" s="43">
+        <v>3</v>
+      </c>
+      <c r="CJ29" s="43">
+        <v>1</v>
+      </c>
+      <c r="CK29" s="43">
+        <v>1</v>
+      </c>
+      <c r="CL29" s="43">
+        <v>5</v>
+      </c>
+      <c r="CM29" s="43">
+        <v>5</v>
+      </c>
+      <c r="CN29" s="43">
+        <v>1</v>
+      </c>
+      <c r="CO29" s="43">
+        <v>5</v>
+      </c>
+      <c r="CP29" s="43">
+        <v>5</v>
+      </c>
+      <c r="CQ29" s="43">
+        <v>3</v>
+      </c>
+      <c r="CR29" s="43">
+        <v>5</v>
+      </c>
+      <c r="CS29" s="43">
+        <v>1</v>
+      </c>
+      <c r="CT29" s="43">
+        <v>5</v>
+      </c>
+      <c r="CU29" s="43">
+        <v>5</v>
+      </c>
       <c r="CW29" s="36"/>
-    </row>
-    <row r="30" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O30" s="34"/>
-      <c r="R30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AP30" s="34"/>
+      <c r="CX29" s="44" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A30" s="42">
+        <v>43874.441817129627</v>
+      </c>
+      <c r="B30" s="42">
+        <v>43874.446608796294</v>
+      </c>
+      <c r="C30" s="43">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43">
+        <v>100</v>
+      </c>
+      <c r="E30" s="43">
+        <v>414</v>
+      </c>
+      <c r="F30" s="43">
+        <v>1</v>
+      </c>
+      <c r="G30" s="42">
+        <v>43874.446627337966</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="L30" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="M30" s="43">
+        <v>2</v>
+      </c>
+      <c r="N30" s="43">
+        <v>2</v>
+      </c>
+      <c r="O30" s="43">
+        <v>2</v>
+      </c>
+      <c r="P30" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="43">
+        <v>1</v>
+      </c>
+      <c r="R30" s="43">
+        <v>2</v>
+      </c>
+      <c r="S30" s="43">
+        <v>3</v>
+      </c>
+      <c r="T30" s="43">
+        <v>1</v>
+      </c>
+      <c r="U30" s="43">
+        <v>3</v>
+      </c>
+      <c r="V30" s="43">
+        <v>4</v>
+      </c>
+      <c r="W30" s="43">
+        <v>4</v>
+      </c>
+      <c r="X30" s="43">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="43">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="43">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="43">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="43">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH30" s="43">
+        <v>3</v>
+      </c>
+      <c r="AI30" s="43">
+        <v>3</v>
+      </c>
+      <c r="AJ30" s="43">
+        <v>2</v>
+      </c>
+      <c r="AK30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="43">
+        <v>2</v>
+      </c>
+      <c r="AN30" s="43">
+        <v>2</v>
+      </c>
+      <c r="AO30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="43">
+        <v>3</v>
+      </c>
       <c r="AQ30" s="41"/>
       <c r="AR30" s="41"/>
       <c r="AS30" s="41"/>
       <c r="AT30" s="41"/>
       <c r="AU30" s="36"/>
-      <c r="AV30" s="34"/>
-      <c r="AX30" s="38"/>
-      <c r="AZ30" s="38"/>
-      <c r="BC30" s="38"/>
-      <c r="BD30" s="38"/>
-      <c r="BE30" s="38"/>
-      <c r="BF30" s="36"/>
-      <c r="CJ30" s="34"/>
-      <c r="CU30" s="34"/>
+      <c r="AV30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AW30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AX30" s="43">
+        <v>4</v>
+      </c>
+      <c r="AY30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="43">
+        <v>4</v>
+      </c>
+      <c r="BA30" s="43">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="43">
+        <v>1</v>
+      </c>
+      <c r="BC30" s="43">
+        <v>4</v>
+      </c>
+      <c r="BD30" s="43">
+        <v>4</v>
+      </c>
+      <c r="BE30" s="43">
+        <v>4</v>
+      </c>
+      <c r="BF30" s="43"/>
+      <c r="BG30" s="43">
+        <v>3</v>
+      </c>
+      <c r="BH30" s="43">
+        <v>2</v>
+      </c>
+      <c r="BI30" s="43">
+        <v>2</v>
+      </c>
+      <c r="BJ30" s="43">
+        <v>3</v>
+      </c>
+      <c r="BK30" s="43">
+        <v>2</v>
+      </c>
+      <c r="BL30" s="43">
+        <v>1</v>
+      </c>
+      <c r="BM30" s="43">
+        <v>2</v>
+      </c>
+      <c r="BN30" s="43">
+        <v>1</v>
+      </c>
+      <c r="BO30" s="43">
+        <v>2</v>
+      </c>
+      <c r="BP30" s="43">
+        <v>2</v>
+      </c>
+      <c r="BQ30" s="43">
+        <v>4</v>
+      </c>
+      <c r="BR30" s="43">
+        <v>4</v>
+      </c>
+      <c r="BS30" s="43">
+        <v>3</v>
+      </c>
+      <c r="BT30" s="43">
+        <v>4</v>
+      </c>
+      <c r="BU30" s="43">
+        <v>2</v>
+      </c>
+      <c r="BV30" s="43">
+        <v>3</v>
+      </c>
+      <c r="BW30" s="43">
+        <v>3</v>
+      </c>
+      <c r="BX30" s="43">
+        <v>4</v>
+      </c>
+      <c r="BY30" s="43">
+        <v>2</v>
+      </c>
+      <c r="BZ30" s="43">
+        <v>3</v>
+      </c>
+      <c r="CA30" s="43">
+        <v>4</v>
+      </c>
+      <c r="CB30" s="43">
+        <v>4</v>
+      </c>
+      <c r="CC30" s="43">
+        <v>1</v>
+      </c>
+      <c r="CD30" s="43">
+        <v>1</v>
+      </c>
+      <c r="CE30" s="43">
+        <v>2</v>
+      </c>
+      <c r="CF30" s="43">
+        <v>2</v>
+      </c>
+      <c r="CG30" s="43">
+        <v>2</v>
+      </c>
+      <c r="CH30" s="43">
+        <v>2</v>
+      </c>
+      <c r="CI30" s="43">
+        <v>2</v>
+      </c>
+      <c r="CJ30" s="43">
+        <v>7</v>
+      </c>
+      <c r="CK30" s="43">
+        <v>7</v>
+      </c>
+      <c r="CL30" s="43">
+        <v>7</v>
+      </c>
+      <c r="CM30" s="43">
+        <v>7</v>
+      </c>
+      <c r="CN30" s="43">
+        <v>7</v>
+      </c>
+      <c r="CO30" s="43">
+        <v>7</v>
+      </c>
+      <c r="CP30" s="43">
+        <v>7</v>
+      </c>
+      <c r="CQ30" s="43">
+        <v>7</v>
+      </c>
+      <c r="CR30" s="43">
+        <v>7</v>
+      </c>
+      <c r="CS30" s="43">
+        <v>7</v>
+      </c>
+      <c r="CT30" s="43">
+        <v>7</v>
+      </c>
+      <c r="CU30" s="43">
+        <v>7</v>
+      </c>
       <c r="CW30" s="36"/>
-    </row>
-    <row r="31" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O31" s="34"/>
-      <c r="R31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
-      <c r="AP31" s="34"/>
+      <c r="CX30" s="44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A31" s="42">
+        <v>43879.306886574072</v>
+      </c>
+      <c r="B31" s="42">
+        <v>43879.325439814813</v>
+      </c>
+      <c r="C31" s="43">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43">
+        <v>100</v>
+      </c>
+      <c r="E31" s="43">
+        <v>1602</v>
+      </c>
+      <c r="F31" s="43">
+        <v>1</v>
+      </c>
+      <c r="G31" s="42">
+        <v>43879.325450983793</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="I31" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="L31" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" s="43">
+        <v>1</v>
+      </c>
+      <c r="N31" s="43">
+        <v>1</v>
+      </c>
+      <c r="O31" s="43">
+        <v>4</v>
+      </c>
+      <c r="P31" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="43">
+        <v>1</v>
+      </c>
+      <c r="R31" s="43">
+        <v>2</v>
+      </c>
+      <c r="S31" s="43">
+        <v>4</v>
+      </c>
+      <c r="T31" s="43">
+        <v>4</v>
+      </c>
+      <c r="U31" s="43">
+        <v>2</v>
+      </c>
+      <c r="V31" s="43">
+        <v>4</v>
+      </c>
+      <c r="W31" s="43">
+        <v>4</v>
+      </c>
+      <c r="X31" s="43">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="43">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="43">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="43">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="43">
+        <v>2</v>
+      </c>
+      <c r="AC31" s="43">
+        <v>3</v>
+      </c>
+      <c r="AD31" s="43">
+        <v>3</v>
+      </c>
+      <c r="AE31" s="43">
+        <v>4</v>
+      </c>
+      <c r="AF31" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH31" s="43">
+        <v>4</v>
+      </c>
+      <c r="AI31" s="43">
+        <v>4</v>
+      </c>
+      <c r="AJ31" s="43">
+        <v>4</v>
+      </c>
+      <c r="AK31" s="43">
+        <v>4</v>
+      </c>
+      <c r="AL31" s="43">
+        <v>3</v>
+      </c>
+      <c r="AM31" s="43">
+        <v>3</v>
+      </c>
+      <c r="AN31" s="43">
+        <v>4</v>
+      </c>
+      <c r="AO31" s="43">
+        <v>2</v>
+      </c>
+      <c r="AP31" s="43">
+        <v>4</v>
+      </c>
       <c r="AQ31" s="41"/>
       <c r="AR31" s="41"/>
       <c r="AS31" s="41"/>
       <c r="AT31" s="41"/>
       <c r="AU31" s="36"/>
-      <c r="AV31" s="34"/>
-      <c r="AX31" s="38"/>
-      <c r="AZ31" s="38"/>
-      <c r="BC31" s="38"/>
-      <c r="BD31" s="38"/>
-      <c r="BE31" s="38"/>
-      <c r="BF31" s="36"/>
-      <c r="CJ31" s="34"/>
-      <c r="CU31" s="34"/>
+      <c r="AV31" s="43">
+        <v>2</v>
+      </c>
+      <c r="AW31" s="43">
+        <v>2</v>
+      </c>
+      <c r="AX31" s="43">
+        <v>2</v>
+      </c>
+      <c r="AY31" s="43">
+        <v>3</v>
+      </c>
+      <c r="AZ31" s="43">
+        <v>2</v>
+      </c>
+      <c r="BA31" s="43">
+        <v>2</v>
+      </c>
+      <c r="BB31" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC31" s="43">
+        <v>2</v>
+      </c>
+      <c r="BD31" s="43">
+        <v>2</v>
+      </c>
+      <c r="BE31" s="43">
+        <v>2</v>
+      </c>
+      <c r="BF31" s="43"/>
+      <c r="BG31" s="43">
+        <v>3</v>
+      </c>
+      <c r="BH31" s="43">
+        <v>2</v>
+      </c>
+      <c r="BI31" s="43">
+        <v>1</v>
+      </c>
+      <c r="BJ31" s="43">
+        <v>1</v>
+      </c>
+      <c r="BK31" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL31" s="43">
+        <v>4</v>
+      </c>
+      <c r="BM31" s="43">
+        <v>4</v>
+      </c>
+      <c r="BN31" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO31" s="43">
+        <v>2</v>
+      </c>
+      <c r="BP31" s="43">
+        <v>3</v>
+      </c>
+      <c r="BQ31" s="43">
+        <v>4</v>
+      </c>
+      <c r="BR31" s="43">
+        <v>3</v>
+      </c>
+      <c r="BS31" s="43">
+        <v>3</v>
+      </c>
+      <c r="BT31" s="43">
+        <v>2</v>
+      </c>
+      <c r="BU31" s="43">
+        <v>2</v>
+      </c>
+      <c r="BV31" s="43">
+        <v>3</v>
+      </c>
+      <c r="BW31" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX31" s="43">
+        <v>1</v>
+      </c>
+      <c r="BY31" s="43">
+        <v>3</v>
+      </c>
+      <c r="BZ31" s="43">
+        <v>3</v>
+      </c>
+      <c r="CA31" s="43">
+        <v>3</v>
+      </c>
+      <c r="CB31" s="43">
+        <v>2</v>
+      </c>
+      <c r="CC31" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD31" s="43">
+        <v>2</v>
+      </c>
+      <c r="CE31" s="43">
+        <v>2</v>
+      </c>
+      <c r="CF31" s="43">
+        <v>3</v>
+      </c>
+      <c r="CG31" s="43">
+        <v>1</v>
+      </c>
+      <c r="CH31" s="43">
+        <v>2</v>
+      </c>
+      <c r="CI31" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ31" s="43">
+        <v>3</v>
+      </c>
+      <c r="CK31" s="43">
+        <v>3</v>
+      </c>
+      <c r="CL31" s="43">
+        <v>4</v>
+      </c>
+      <c r="CM31" s="43">
+        <v>4</v>
+      </c>
+      <c r="CN31" s="43">
+        <v>3</v>
+      </c>
+      <c r="CO31" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP31" s="43">
+        <v>3</v>
+      </c>
+      <c r="CQ31" s="43">
+        <v>4</v>
+      </c>
+      <c r="CR31" s="43">
+        <v>3</v>
+      </c>
+      <c r="CS31" s="43">
+        <v>4</v>
+      </c>
+      <c r="CT31" s="43">
+        <v>3</v>
+      </c>
+      <c r="CU31" s="43">
+        <v>4</v>
+      </c>
       <c r="CW31" s="36"/>
-    </row>
-    <row r="32" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O32" s="34"/>
-      <c r="R32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AP32" s="34"/>
+      <c r="CX31" s="44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A32" s="42">
+        <v>43887.414444444446</v>
+      </c>
+      <c r="B32" s="42">
+        <v>43887.419618055559</v>
+      </c>
+      <c r="C32" s="43">
+        <v>0</v>
+      </c>
+      <c r="D32" s="43">
+        <v>100</v>
+      </c>
+      <c r="E32" s="43">
+        <v>446</v>
+      </c>
+      <c r="F32" s="43">
+        <v>1</v>
+      </c>
+      <c r="G32" s="42">
+        <v>43887.419628101852</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" s="43">
+        <v>2</v>
+      </c>
+      <c r="N32" s="43">
+        <v>2</v>
+      </c>
+      <c r="O32" s="43">
+        <v>3</v>
+      </c>
+      <c r="P32" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="43">
+        <v>1</v>
+      </c>
+      <c r="R32" s="43">
+        <v>4</v>
+      </c>
+      <c r="S32" s="43">
+        <v>3</v>
+      </c>
+      <c r="T32" s="43">
+        <v>2</v>
+      </c>
+      <c r="U32" s="43">
+        <v>3</v>
+      </c>
+      <c r="V32" s="43">
+        <v>4</v>
+      </c>
+      <c r="W32" s="43">
+        <v>3</v>
+      </c>
+      <c r="X32" s="43">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="43">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="43">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="43">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="43">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="43">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="43">
+        <v>3</v>
+      </c>
+      <c r="AE32" s="43">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="43">
+        <v>4</v>
+      </c>
+      <c r="AH32" s="43">
+        <v>4</v>
+      </c>
+      <c r="AI32" s="43">
+        <v>3</v>
+      </c>
+      <c r="AJ32" s="43">
+        <v>4</v>
+      </c>
+      <c r="AK32" s="43">
+        <v>3</v>
+      </c>
+      <c r="AL32" s="43">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="43">
+        <v>2</v>
+      </c>
+      <c r="AN32" s="43">
+        <v>3</v>
+      </c>
+      <c r="AO32" s="43">
+        <v>2</v>
+      </c>
+      <c r="AP32" s="43">
+        <v>4</v>
+      </c>
       <c r="AQ32" s="41"/>
       <c r="AR32" s="41"/>
       <c r="AS32" s="41"/>
       <c r="AT32" s="41"/>
       <c r="AU32" s="36"/>
-      <c r="AV32" s="34"/>
-      <c r="AX32" s="38"/>
-      <c r="AZ32" s="38"/>
-      <c r="BC32" s="38"/>
-      <c r="BD32" s="38"/>
-      <c r="BE32" s="38"/>
-      <c r="BF32" s="36"/>
-      <c r="CJ32" s="34"/>
-      <c r="CU32" s="34"/>
+      <c r="AV32" s="43">
+        <v>2</v>
+      </c>
+      <c r="AW32" s="43">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="43">
+        <v>4</v>
+      </c>
+      <c r="AY32" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ32" s="43">
+        <v>3</v>
+      </c>
+      <c r="BA32" s="43">
+        <v>1</v>
+      </c>
+      <c r="BB32" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC32" s="43">
+        <v>4</v>
+      </c>
+      <c r="BD32" s="43">
+        <v>3</v>
+      </c>
+      <c r="BE32" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF32" s="43"/>
+      <c r="BG32" s="43">
+        <v>2</v>
+      </c>
+      <c r="BH32" s="43">
+        <v>3</v>
+      </c>
+      <c r="BI32" s="43">
+        <v>1</v>
+      </c>
+      <c r="BJ32" s="43">
+        <v>3</v>
+      </c>
+      <c r="BK32" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL32" s="43">
+        <v>1</v>
+      </c>
+      <c r="BM32" s="43">
+        <v>1</v>
+      </c>
+      <c r="BN32" s="43">
+        <v>1</v>
+      </c>
+      <c r="BO32" s="43">
+        <v>3</v>
+      </c>
+      <c r="BP32" s="43">
+        <v>1</v>
+      </c>
+      <c r="BQ32" s="43">
+        <v>2</v>
+      </c>
+      <c r="BR32" s="43">
+        <v>2</v>
+      </c>
+      <c r="BS32" s="43">
+        <v>3</v>
+      </c>
+      <c r="BT32" s="43">
+        <v>4</v>
+      </c>
+      <c r="BU32" s="43">
+        <v>2</v>
+      </c>
+      <c r="BV32" s="43">
+        <v>2</v>
+      </c>
+      <c r="BW32" s="43">
+        <v>3</v>
+      </c>
+      <c r="BX32" s="43">
+        <v>4</v>
+      </c>
+      <c r="BY32" s="43">
+        <v>2</v>
+      </c>
+      <c r="BZ32" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA32" s="43">
+        <v>3</v>
+      </c>
+      <c r="CB32" s="43">
+        <v>3</v>
+      </c>
+      <c r="CC32" s="43">
+        <v>2</v>
+      </c>
+      <c r="CD32" s="43">
+        <v>2</v>
+      </c>
+      <c r="CE32" s="43">
+        <v>1</v>
+      </c>
+      <c r="CF32" s="43">
+        <v>3</v>
+      </c>
+      <c r="CG32" s="43">
+        <v>3</v>
+      </c>
+      <c r="CH32" s="43">
+        <v>1</v>
+      </c>
+      <c r="CI32" s="43">
+        <v>3</v>
+      </c>
+      <c r="CJ32" s="43">
+        <v>6</v>
+      </c>
+      <c r="CK32" s="43">
+        <v>6</v>
+      </c>
+      <c r="CL32" s="43">
+        <v>7</v>
+      </c>
+      <c r="CM32" s="43">
+        <v>7</v>
+      </c>
+      <c r="CN32" s="43">
+        <v>7</v>
+      </c>
+      <c r="CO32" s="43">
+        <v>6</v>
+      </c>
+      <c r="CP32" s="43">
+        <v>6</v>
+      </c>
+      <c r="CQ32" s="43">
+        <v>6</v>
+      </c>
+      <c r="CR32" s="43">
+        <v>6</v>
+      </c>
+      <c r="CS32" s="43">
+        <v>6</v>
+      </c>
+      <c r="CT32" s="43">
+        <v>7</v>
+      </c>
+      <c r="CU32" s="43">
+        <v>7</v>
+      </c>
       <c r="CW32" s="36"/>
-    </row>
-    <row r="33" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O33" s="34"/>
-      <c r="R33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AP33" s="34"/>
+      <c r="CX32" s="44" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A33" s="42">
+        <v>43893.423229166663</v>
+      </c>
+      <c r="B33" s="42">
+        <v>43893.431493055556</v>
+      </c>
+      <c r="C33" s="43">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43">
+        <v>100</v>
+      </c>
+      <c r="E33" s="43">
+        <v>714</v>
+      </c>
+      <c r="F33" s="43">
+        <v>1</v>
+      </c>
+      <c r="G33" s="42">
+        <v>43893.431509525464</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" s="43">
+        <v>1</v>
+      </c>
+      <c r="N33" s="43">
+        <v>1</v>
+      </c>
+      <c r="O33" s="43">
+        <v>3</v>
+      </c>
+      <c r="P33" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="43">
+        <v>2</v>
+      </c>
+      <c r="R33" s="43">
+        <v>1</v>
+      </c>
+      <c r="S33" s="43">
+        <v>1</v>
+      </c>
+      <c r="T33" s="43">
+        <v>3</v>
+      </c>
+      <c r="U33" s="43">
+        <v>1</v>
+      </c>
+      <c r="V33" s="43">
+        <v>5</v>
+      </c>
+      <c r="W33" s="43">
+        <v>4</v>
+      </c>
+      <c r="X33" s="43">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="43">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="43">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="43">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="43">
+        <v>3</v>
+      </c>
+      <c r="AD33" s="43">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="43">
+        <v>5</v>
+      </c>
+      <c r="AF33" s="43">
+        <v>2</v>
+      </c>
+      <c r="AG33" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH33" s="43">
+        <v>4</v>
+      </c>
+      <c r="AI33" s="43">
+        <v>5</v>
+      </c>
+      <c r="AJ33" s="43">
+        <v>5</v>
+      </c>
+      <c r="AK33" s="43">
+        <v>3</v>
+      </c>
+      <c r="AL33" s="43">
+        <v>2</v>
+      </c>
+      <c r="AM33" s="43">
+        <v>2</v>
+      </c>
+      <c r="AN33" s="43">
+        <v>3</v>
+      </c>
+      <c r="AO33" s="43">
+        <v>2</v>
+      </c>
+      <c r="AP33" s="43">
+        <v>5</v>
+      </c>
       <c r="AQ33" s="41"/>
       <c r="AR33" s="41"/>
       <c r="AS33" s="41"/>
       <c r="AT33" s="41"/>
       <c r="AU33" s="36"/>
-      <c r="AV33" s="34"/>
-      <c r="AX33" s="38"/>
-      <c r="AZ33" s="38"/>
-      <c r="BC33" s="38"/>
-      <c r="BD33" s="38"/>
-      <c r="BE33" s="38"/>
-      <c r="BF33" s="36"/>
-      <c r="CJ33" s="34"/>
-      <c r="CU33" s="34"/>
+      <c r="AV33" s="43">
+        <v>2</v>
+      </c>
+      <c r="AW33" s="43">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="43">
+        <v>3</v>
+      </c>
+      <c r="AY33" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ33" s="43">
+        <v>4</v>
+      </c>
+      <c r="BA33" s="43">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="43">
+        <v>1</v>
+      </c>
+      <c r="BC33" s="43">
+        <v>3</v>
+      </c>
+      <c r="BD33" s="43">
+        <v>4</v>
+      </c>
+      <c r="BE33" s="43">
+        <v>4</v>
+      </c>
+      <c r="BF33" s="43"/>
+      <c r="BG33" s="43">
+        <v>1</v>
+      </c>
+      <c r="BH33" s="43">
+        <v>2</v>
+      </c>
+      <c r="BI33" s="43">
+        <v>1</v>
+      </c>
+      <c r="BJ33" s="43">
+        <v>2</v>
+      </c>
+      <c r="BK33" s="43">
+        <v>2</v>
+      </c>
+      <c r="BL33" s="43">
+        <v>1</v>
+      </c>
+      <c r="BM33" s="43">
+        <v>1</v>
+      </c>
+      <c r="BN33" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO33" s="43">
+        <v>2</v>
+      </c>
+      <c r="BP33" s="43">
+        <v>1</v>
+      </c>
+      <c r="BQ33" s="43">
+        <v>4</v>
+      </c>
+      <c r="BR33" s="43">
+        <v>2</v>
+      </c>
+      <c r="BS33" s="43">
+        <v>3</v>
+      </c>
+      <c r="BT33" s="43">
+        <v>4</v>
+      </c>
+      <c r="BU33" s="43">
+        <v>2</v>
+      </c>
+      <c r="BV33" s="43">
+        <v>2</v>
+      </c>
+      <c r="BW33" s="43">
+        <v>2</v>
+      </c>
+      <c r="BX33" s="43">
+        <v>4</v>
+      </c>
+      <c r="BY33" s="43">
+        <v>2</v>
+      </c>
+      <c r="BZ33" s="43">
+        <v>1</v>
+      </c>
+      <c r="CA33" s="43">
+        <v>3</v>
+      </c>
+      <c r="CB33" s="43">
+        <v>2</v>
+      </c>
+      <c r="CC33" s="43">
+        <v>1</v>
+      </c>
+      <c r="CD33" s="43">
+        <v>2</v>
+      </c>
+      <c r="CE33" s="43">
+        <v>1</v>
+      </c>
+      <c r="CF33" s="43">
+        <v>2</v>
+      </c>
+      <c r="CG33" s="43">
+        <v>3</v>
+      </c>
+      <c r="CH33" s="43">
+        <v>2</v>
+      </c>
+      <c r="CI33" s="43">
+        <v>2</v>
+      </c>
+      <c r="CJ33" s="43">
+        <v>7</v>
+      </c>
+      <c r="CK33" s="43">
+        <v>7</v>
+      </c>
+      <c r="CL33" s="43">
+        <v>7</v>
+      </c>
+      <c r="CM33" s="43">
+        <v>7</v>
+      </c>
+      <c r="CN33" s="43">
+        <v>7</v>
+      </c>
+      <c r="CO33" s="43">
+        <v>6</v>
+      </c>
+      <c r="CP33" s="43">
+        <v>6</v>
+      </c>
+      <c r="CQ33" s="43">
+        <v>7</v>
+      </c>
+      <c r="CR33" s="43">
+        <v>6</v>
+      </c>
+      <c r="CS33" s="43">
+        <v>6</v>
+      </c>
+      <c r="CT33" s="43">
+        <v>7</v>
+      </c>
+      <c r="CU33" s="43">
+        <v>5</v>
+      </c>
       <c r="CW33" s="36"/>
-    </row>
-    <row r="34" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O34" s="34"/>
-      <c r="R34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
-      <c r="AP34" s="34"/>
+      <c r="CX33" s="44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A34" s="42">
+        <v>43900.31653935185</v>
+      </c>
+      <c r="B34" s="42">
+        <v>43900.320949074077</v>
+      </c>
+      <c r="C34" s="43">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43">
+        <v>100</v>
+      </c>
+      <c r="E34" s="43">
+        <v>380</v>
+      </c>
+      <c r="F34" s="43">
+        <v>1</v>
+      </c>
+      <c r="G34" s="42">
+        <v>43900.320958402779</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J34" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="L34" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="M34" s="43">
+        <v>2</v>
+      </c>
+      <c r="N34" s="43">
+        <v>2</v>
+      </c>
+      <c r="O34" s="43">
+        <v>4</v>
+      </c>
+      <c r="P34" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="43">
+        <v>2</v>
+      </c>
+      <c r="R34" s="43">
+        <v>3</v>
+      </c>
+      <c r="S34" s="43">
+        <v>2</v>
+      </c>
+      <c r="T34" s="43">
+        <v>3</v>
+      </c>
+      <c r="U34" s="43">
+        <v>4</v>
+      </c>
+      <c r="V34" s="43">
+        <v>3</v>
+      </c>
+      <c r="W34" s="43">
+        <v>3</v>
+      </c>
+      <c r="X34" s="43">
+        <v>5</v>
+      </c>
+      <c r="Y34" s="43">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="43">
+        <v>4</v>
+      </c>
+      <c r="AA34" s="43">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="43">
+        <v>2</v>
+      </c>
+      <c r="AC34" s="43">
+        <v>3</v>
+      </c>
+      <c r="AD34" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE34" s="43">
+        <v>5</v>
+      </c>
+      <c r="AF34" s="43">
+        <v>3</v>
+      </c>
+      <c r="AG34" s="43">
+        <v>4</v>
+      </c>
+      <c r="AH34" s="43">
+        <v>3</v>
+      </c>
+      <c r="AI34" s="43">
+        <v>2</v>
+      </c>
+      <c r="AJ34" s="43">
+        <v>3</v>
+      </c>
+      <c r="AK34" s="43">
+        <v>2</v>
+      </c>
+      <c r="AL34" s="43">
+        <v>2</v>
+      </c>
+      <c r="AM34" s="43">
+        <v>2</v>
+      </c>
+      <c r="AN34" s="43">
+        <v>2</v>
+      </c>
+      <c r="AO34" s="43">
+        <v>4</v>
+      </c>
+      <c r="AP34" s="43">
+        <v>3</v>
+      </c>
       <c r="AQ34" s="41"/>
       <c r="AR34" s="41"/>
       <c r="AS34" s="41"/>
       <c r="AT34" s="41"/>
       <c r="AU34" s="36"/>
-      <c r="AV34" s="34"/>
-      <c r="AX34" s="38"/>
-      <c r="AZ34" s="38"/>
-      <c r="BC34" s="38"/>
-      <c r="BD34" s="38"/>
-      <c r="BE34" s="38"/>
-      <c r="BF34" s="36"/>
-      <c r="CJ34" s="34"/>
-      <c r="CU34" s="34"/>
+      <c r="AV34" s="43">
+        <v>2</v>
+      </c>
+      <c r="AW34" s="43">
+        <v>3</v>
+      </c>
+      <c r="AX34" s="43">
+        <v>3</v>
+      </c>
+      <c r="AY34" s="43">
+        <v>3</v>
+      </c>
+      <c r="AZ34" s="43">
+        <v>3</v>
+      </c>
+      <c r="BA34" s="43">
+        <v>3</v>
+      </c>
+      <c r="BB34" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC34" s="43">
+        <v>2</v>
+      </c>
+      <c r="BD34" s="43">
+        <v>2</v>
+      </c>
+      <c r="BE34" s="43">
+        <v>2</v>
+      </c>
+      <c r="BF34" s="43"/>
+      <c r="BG34" s="43">
+        <v>4</v>
+      </c>
+      <c r="BH34" s="43">
+        <v>2</v>
+      </c>
+      <c r="BI34" s="43">
+        <v>2</v>
+      </c>
+      <c r="BJ34" s="43">
+        <v>2</v>
+      </c>
+      <c r="BK34" s="43">
+        <v>3</v>
+      </c>
+      <c r="BL34" s="43">
+        <v>3</v>
+      </c>
+      <c r="BM34" s="43">
+        <v>4</v>
+      </c>
+      <c r="BN34" s="43">
+        <v>3</v>
+      </c>
+      <c r="BO34" s="43">
+        <v>2</v>
+      </c>
+      <c r="BP34" s="43">
+        <v>4</v>
+      </c>
+      <c r="BQ34" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR34" s="43">
+        <v>4</v>
+      </c>
+      <c r="BS34" s="43">
+        <v>2</v>
+      </c>
+      <c r="BT34" s="43">
+        <v>1</v>
+      </c>
+      <c r="BU34" s="43">
+        <v>2</v>
+      </c>
+      <c r="BV34" s="43">
+        <v>4</v>
+      </c>
+      <c r="BW34" s="43">
+        <v>3</v>
+      </c>
+      <c r="BX34" s="43">
+        <v>2</v>
+      </c>
+      <c r="BY34" s="43">
+        <v>4</v>
+      </c>
+      <c r="BZ34" s="43">
+        <v>3</v>
+      </c>
+      <c r="CA34" s="43">
+        <v>3</v>
+      </c>
+      <c r="CB34" s="43">
+        <v>4</v>
+      </c>
+      <c r="CC34" s="43">
+        <v>2</v>
+      </c>
+      <c r="CD34" s="43">
+        <v>1</v>
+      </c>
+      <c r="CE34" s="43">
+        <v>4</v>
+      </c>
+      <c r="CF34" s="43">
+        <v>2</v>
+      </c>
+      <c r="CG34" s="43">
+        <v>1</v>
+      </c>
+      <c r="CH34" s="43">
+        <v>4</v>
+      </c>
+      <c r="CI34" s="43">
+        <v>4</v>
+      </c>
+      <c r="CJ34" s="43">
+        <v>6</v>
+      </c>
+      <c r="CK34" s="43">
+        <v>6</v>
+      </c>
+      <c r="CL34" s="43">
+        <v>6</v>
+      </c>
+      <c r="CM34" s="43">
+        <v>4</v>
+      </c>
+      <c r="CN34" s="43">
+        <v>6</v>
+      </c>
+      <c r="CO34" s="43">
+        <v>6</v>
+      </c>
+      <c r="CP34" s="43">
+        <v>4</v>
+      </c>
+      <c r="CQ34" s="43">
+        <v>3</v>
+      </c>
+      <c r="CR34" s="43">
+        <v>5</v>
+      </c>
+      <c r="CS34" s="43">
+        <v>6</v>
+      </c>
+      <c r="CT34" s="43">
+        <v>4</v>
+      </c>
+      <c r="CU34" s="43">
+        <v>6</v>
+      </c>
       <c r="CW34" s="36"/>
-    </row>
-    <row r="35" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CX34" s="44" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="34"/>
       <c r="R35" s="39"/>
       <c r="U35" s="39"/>
@@ -9230,7 +11973,7 @@
       <c r="CU35" s="34"/>
       <c r="CW35" s="36"/>
     </row>
-    <row r="36" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="34"/>
       <c r="R36" s="39"/>
       <c r="U36" s="39"/>
@@ -9257,7 +12000,7 @@
       <c r="CU36" s="34"/>
       <c r="CW36" s="36"/>
     </row>
-    <row r="37" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="34"/>
       <c r="R37" s="39"/>
       <c r="U37" s="39"/>
@@ -9284,7 +12027,7 @@
       <c r="CU37" s="34"/>
       <c r="CW37" s="36"/>
     </row>
-    <row r="38" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="34"/>
       <c r="R38" s="39"/>
       <c r="U38" s="39"/>
@@ -9311,7 +12054,7 @@
       <c r="CU38" s="34"/>
       <c r="CW38" s="36"/>
     </row>
-    <row r="39" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="34"/>
       <c r="R39" s="39"/>
       <c r="U39" s="39"/>
@@ -9338,7 +12081,7 @@
       <c r="CU39" s="34"/>
       <c r="CW39" s="36"/>
     </row>
-    <row r="40" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O40" s="34"/>
       <c r="R40" s="39"/>
       <c r="U40" s="39"/>
@@ -9365,7 +12108,7 @@
       <c r="CU40" s="34"/>
       <c r="CW40" s="36"/>
     </row>
-    <row r="41" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O41" s="34"/>
       <c r="R41" s="39"/>
       <c r="U41" s="39"/>
@@ -9392,7 +12135,7 @@
       <c r="CU41" s="34"/>
       <c r="CW41" s="36"/>
     </row>
-    <row r="42" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O42" s="34"/>
       <c r="R42" s="39"/>
       <c r="U42" s="39"/>
@@ -9419,7 +12162,7 @@
       <c r="CU42" s="34"/>
       <c r="CW42" s="36"/>
     </row>
-    <row r="43" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O43" s="34"/>
       <c r="R43" s="39"/>
       <c r="U43" s="39"/>
@@ -9446,7 +12189,7 @@
       <c r="CU43" s="34"/>
       <c r="CW43" s="36"/>
     </row>
-    <row r="44" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O44" s="34"/>
       <c r="R44" s="39"/>
       <c r="U44" s="39"/>
@@ -9473,7 +12216,7 @@
       <c r="CU44" s="34"/>
       <c r="CW44" s="36"/>
     </row>
-    <row r="45" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O45" s="34"/>
       <c r="R45" s="39"/>
       <c r="U45" s="39"/>
@@ -9500,7 +12243,7 @@
       <c r="CU45" s="34"/>
       <c r="CW45" s="36"/>
     </row>
-    <row r="46" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O46" s="34"/>
       <c r="R46" s="39"/>
       <c r="U46" s="39"/>
@@ -9527,7 +12270,7 @@
       <c r="CU46" s="34"/>
       <c r="CW46" s="36"/>
     </row>
-    <row r="47" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O47" s="34"/>
       <c r="R47" s="39"/>
       <c r="U47" s="39"/>
@@ -9554,7 +12297,7 @@
       <c r="CU47" s="34"/>
       <c r="CW47" s="36"/>
     </row>
-    <row r="48" spans="15:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O48" s="34"/>
       <c r="R48" s="39"/>
       <c r="U48" s="39"/>
@@ -35286,7 +38029,7 @@
       <c r="CW1000" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:CX26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:CX26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
